--- a/respaldo/Word_list.xlsx
+++ b/respaldo/Word_list.xlsx
@@ -20,7 +20,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cercano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peligro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destruir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cubrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tablero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amplio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descubrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descubrimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinguish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinguir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dangerous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peligroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oscurecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mejor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elegir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuidado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar cuenta de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el mejor de todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antiguo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brillante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombrar en un cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sustentar</t>
+  </si>
   <si>
     <t xml:space="preserve">able</t>
   </si>
@@ -28,19 +301,193 @@
     <t xml:space="preserve">capaz</t>
   </si>
   <si>
-    <t xml:space="preserve">account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dar cuenta de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real</t>
+    <t xml:space="preserve">believe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oscuridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quemar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convertirse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombramiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trasero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respaldar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aparecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aplicar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pertenecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avanzar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preguntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preocupacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concernir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -49,22 +496,106 @@
     <t xml:space="preserve">anadir</t>
   </si>
   <si>
+    <t xml:space="preserve">cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nacido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soplar</t>
+  </si>
+  <si>
     <t xml:space="preserve">address</t>
   </si>
   <si>
     <t xml:space="preserve">direccion</t>
   </si>
   <si>
-    <t xml:space="preserve">advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avanzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventaja</t>
+    <t xml:space="preserve">arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comenzar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cruzar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oscuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capturar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llevar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desarrollo</t>
   </si>
   <si>
     <t xml:space="preserve">affairs</t>
@@ -73,163 +604,28 @@
     <t xml:space="preserve">asuntos</t>
   </si>
   <si>
+    <t xml:space="preserve">contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contener</t>
+  </si>
+  <si>
     <t xml:space="preserve">age</t>
   </si>
   <si>
     <t xml:space="preserve">edad</t>
   </si>
   <si>
-    <t xml:space="preserve">agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estar de acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todos</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow</t>
   </si>
   <si>
     <t xml:space="preserve">permitir</t>
   </si>
   <si>
-    <t xml:space="preserve">alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antiguo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respuesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">responder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aparecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aplicar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombrar en un cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombramiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surgir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llegada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preguntar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trasero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respaldar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malo</t>
+    <t xml:space="preserve">belief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creencia</t>
   </si>
   <si>
     <t xml:space="preserve">ball</t>
@@ -238,186 +634,6 @@
     <t xml:space="preserve">pelota</t>
   </si>
   <si>
-    <t xml:space="preserve">bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">become</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convertirse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comenzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">believe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pertenecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el mejor de todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mejor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tablero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">born</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nacido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">romper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">puente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brillante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amplio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">construir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quemar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comprar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llamada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuidado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cargar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llevar</t>
-  </si>
-  <si>
     <t xml:space="preserve">case</t>
   </si>
   <si>
@@ -427,217 +643,511 @@
     <t xml:space="preserve">estuche</t>
   </si>
   <si>
-    <t xml:space="preserve">catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capturar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cambio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cambiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jefe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elegir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alegar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cercano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">come</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preocupacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concernir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cubrir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cruzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cortar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peligro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dangerous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peligroso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oscuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oscurecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oscuridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destruir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desarrollar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descubrir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descubrimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distinguish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distinguir</t>
+    <t xml:space="preserve">doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dudar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due (to)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer propaganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aconsejar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afraid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con miedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apuntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molestar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discutir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangemnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arreglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar presente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awkward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inapropiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descubierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conducta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doblar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hojilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloquear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hervir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hueso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir prestado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cepillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocupado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precaucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encadenar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolectar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quejarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conscious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrietar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triturar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atreverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disminuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suciedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punto</t>
   </si>
 </sst>
 </file>
@@ -754,10 +1264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D167" activeCellId="0" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,6 +1276,9 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -781,38 +1294,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
@@ -826,7 +1336,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -835,12 +1345,12 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -849,12 +1359,12 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -862,61 +1372,64 @@
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -924,35 +1437,35 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>25</v>
@@ -960,30 +1473,30 @@
       <c r="C14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>30</v>
@@ -991,115 +1504,106 @@
       <c r="C16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -1107,75 +1611,69 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -1183,134 +1681,131 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -1318,13 +1813,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
@@ -1332,83 +1827,89 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
@@ -1416,30 +1917,27 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
@@ -1447,13 +1945,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
@@ -1461,176 +1959,191 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="E56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="E57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="E58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -1647,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -1657,28 +2170,28 @@
       <c r="C61" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="E61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>136</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -1688,28 +2201,25 @@
       <c r="C63" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="E63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="E64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -1719,42 +2229,42 @@
       <c r="C65" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="E66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>147</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -1764,59 +2274,59 @@
       <c r="C68" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="D68" s="0" t="s">
+        <v>150</v>
+      </c>
       <c r="E68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="0" t="s">
         <v>157</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -1830,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -1844,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -1854,84 +2364,81 @@
       <c r="C74" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="E74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="E75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="E76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="E77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="E78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -1945,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -1959,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -1973,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -1987,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -2001,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -2015,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -2029,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -2037,13 +2544,16 @@
         <v>188</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>189</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -2054,10 +2564,10 @@
         <v>191</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -2068,10 +2578,10 @@
         <v>193</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -2082,10 +2592,10 @@
         <v>195</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -2096,10 +2606,10 @@
         <v>197</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -2110,10 +2620,10 @@
         <v>199</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -2124,10 +2634,10 @@
         <v>201</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -2138,7 +2648,7 @@
         <v>203</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2661,1139 @@
       <c r="C95" s="0" t="s">
         <v>205</v>
       </c>
+      <c r="D95" s="0" t="s">
+        <v>206</v>
+      </c>
       <c r="E95" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="0" t="n">
         <v>0</v>
       </c>
     </row>
